--- a/biology/Zoologie/Habrocerinae/Habrocerinae.xlsx
+++ b/biology/Zoologie/Habrocerinae/Habrocerinae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Habrocerinae sont une sous-famille d'insectes de la famille des Staphylinidae. Comme tous les membres de la famille des Staphylinidae, ces insectes sont distinguables par des élytres très courts laissant plus de la moitié du corps exposé.
 </t>
@@ -511,9 +523,11 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Habrocerinae se retrouvent dans la litière forestière, sous les débris de bois et sur les champignons[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Habrocerinae se retrouvent dans la litière forestière, sous les débris de bois et sur les champignons.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon NCBI  (23 mars 2021)[3] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon NCBI  (23 mars 2021) :
 Habrocerus Erichson, 1839
 Nomimocerus Coiffait &amp; Sáiz, 1965</t>
         </is>
@@ -574,7 +590,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Étienne Mulsant et Claudius Rey, Histoire naturelle des Coléoptères de France : Brévipennes, suite [Staphyliniens], Paris, Inconnu, 1877, 756 p. (OCLC 235442534, DOI 10.5962/BHL.TITLE.51574, lire en ligne)</t>
         </is>
